--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2520/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A892773-E8E3-C141-A7CB-6B4194359507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4E06D-BCE2-A64A-8350-B3C89653D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -231,9 +231,6 @@
     <t>M: February 5, 2024</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 2 due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -268,6 +265,21 @@
   </si>
   <si>
     <t>M: April 29, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: March 4, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 22, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -644,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY39"/>
+  <dimension ref="A1:XEY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8900,7 +8912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
+    <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8908,7 +8920,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8938,10 +8950,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8971,10 +8983,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9026,10 +9038,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9037,21 +9049,21 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9059,10 +9071,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9070,7 +9082,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -9078,10 +9090,10 @@
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>41</v>
@@ -9092,7 +9104,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>41</v>
@@ -9100,13 +9112,13 @@
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9114,21 +9126,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9136,10 +9148,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9147,21 +9159,21 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9169,10 +9181,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9180,21 +9192,21 @@
         <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9202,21 +9214,21 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9224,32 +9236,32 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9257,20 +9269,42 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
       <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18">
+      <c r="A41">
         <v>16</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2520/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4E06D-BCE2-A64A-8350-B3C89653D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B43194F-0B15-7D4C-A698-365231BB447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Exam (Midterm) 2&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>sampling</t>
-  </si>
-  <si>
     <t>W1 continued…</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>W6 continued…</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8909,7 +8909,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -8917,10 +8917,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8931,7 +8931,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8950,10 +8950,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8964,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8983,10 +8983,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8997,7 +8997,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9019,7 +9019,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9030,7 +9030,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9038,10 +9038,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9052,7 +9052,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9063,7 +9063,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9071,10 +9071,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9129,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9140,7 +9140,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9148,10 +9148,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9162,7 +9162,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -9181,10 +9181,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9195,7 +9195,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9217,7 +9217,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9236,10 +9236,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9250,7 +9250,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9269,10 +9269,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9283,7 +9283,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2520/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B43194F-0B15-7D4C-A698-365231BB447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC79264-1B26-6248-8281-9ADBE7B8DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Week</t>
   </si>
@@ -240,22 +240,10 @@
     <t>M: February 19, 2024</t>
   </si>
   <si>
-    <t>M: March 11, 2024</t>
-  </si>
-  <si>
-    <t>M: April 8, 2024</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 4 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 5 due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 6 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>M: April 1, 2024</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 7 due&lt;/span&gt;&lt;/b&gt;</t>
@@ -267,19 +255,25 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: March 4, 2024</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>M: April 22, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>W6 continued…</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>T: March 12, 2024</t>
+  </si>
+  <si>
+    <t>T: April 2, 2024</t>
+  </si>
+  <si>
+    <t>T: April 9, 2024</t>
+  </si>
+  <si>
+    <t>T: April 23, 2024</t>
   </si>
 </sst>
 </file>
@@ -656,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY41"/>
+  <dimension ref="A1:XEY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8920,7 +8914,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -9030,7 +9024,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9038,10 +9032,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9049,21 +9043,21 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9071,10 +9065,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9082,7 +9076,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -9090,10 +9084,10 @@
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>41</v>
@@ -9104,7 +9098,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>41</v>
@@ -9112,13 +9106,13 @@
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9126,21 +9120,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9148,10 +9142,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9159,21 +9153,21 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9181,10 +9175,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9192,21 +9186,21 @@
         <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9214,21 +9208,21 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9236,10 +9230,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9247,21 +9241,21 @@
         <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9269,10 +9263,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9280,31 +9274,20 @@
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18">
-      <c r="A41">
-        <v>16</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC79264-1B26-6248-8281-9ADBE7B8DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88286F5A-5E7E-D545-BCFC-1FB356E02597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>T: March 12, 2024</t>
-  </si>
-  <si>
     <t>T: April 2, 2024</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>T: April 23, 2024</t>
+  </si>
+  <si>
+    <t>T: March 26, 2024</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9049,15 +9049,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34">
+    <row r="19" spans="1:3" ht="18">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9065,7 +9065,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>41</v>
@@ -9073,10 +9073,10 @@
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>41</v>
@@ -9087,21 +9087,21 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9131,7 +9131,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>66</v>
@@ -9164,7 +9164,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>67</v>
@@ -9219,7 +9219,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>71</v>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88286F5A-5E7E-D545-BCFC-1FB356E02597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B42C8-EA2F-4F43-8ACB-D1F33EF6383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>[W13: Non-Independent Data](../modules/W13.html)</t>
   </si>
   <si>
-    <t>[W14: Non-continuous data](../modules/W14.html)</t>
-  </si>
-  <si>
     <t>[W15: Odds and Ends](../modules/W15.html)</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 7 due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: April 29, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>T: March 26, 2024</t>
+  </si>
+  <si>
+    <t>T: April 30, 2024</t>
+  </si>
+  <si>
+    <t>[W14: Miscellaneous Data](../modules/W14.html)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8911,10 +8911,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8925,7 +8925,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8944,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8977,10 +8977,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9024,7 +9024,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9098,10 +9098,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9164,10 +9164,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9219,10 +9219,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9233,7 +9233,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9252,10 +9252,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9266,7 +9266,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B42C8-EA2F-4F43-8ACB-D1F33EF6383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515875D-ED41-F94A-8EB0-E687C0401200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>[W12: Loose Ends / Exam 2 review](../modules/W12.html)</t>
   </si>
   <si>
-    <t>[W13: Non-Independent Data](../modules/W13.html)</t>
-  </si>
-  <si>
     <t>[W15: Odds and Ends](../modules/W15.html)</t>
   </si>
   <si>
@@ -273,7 +270,10 @@
     <t>T: April 30, 2024</t>
   </si>
   <si>
-    <t>[W14: Miscellaneous Data](../modules/W14.html)</t>
+    <t>[W14: Non-Independent/Miscellaneous Data](../modules/W14.html)</t>
+  </si>
+  <si>
+    <t>[W13: Factorial Designs](../modules/W13.html)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8911,10 +8911,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8925,7 +8925,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8944,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8977,10 +8977,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9024,7 +9024,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9098,10 +9098,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9164,10 +9164,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9200,7 +9200,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9219,10 +9219,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9233,7 +9233,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9252,10 +9252,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9266,7 +9266,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515875D-ED41-F94A-8EB0-E687C0401200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6337D-5213-D642-BB7D-F7C539F44E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <t>[W14: Non-Independent/Miscellaneous Data](../modules/W14.html)</t>
   </si>
   <si>
-    <t>[W13: Factorial Designs](../modules/W13.html)</t>
+    <t>[W13: Additional Predictors](../modules/W13.html)</t>
   </si>
 </sst>
 </file>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6337D-5213-D642-BB7D-F7C539F44E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFD819-19F8-7443-B06B-8E1D25BE3F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Week</t>
   </si>
@@ -54,9 +54,6 @@
     <t>W3 continued…</t>
   </si>
   <si>
-    <t>**Wrapping Up!**</t>
-  </si>
-  <si>
     <t>W11 continued…</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>W14 continued…</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Final Exam&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>W: January 24, 2024</t>
@@ -270,10 +264,37 @@
     <t>T: April 30, 2024</t>
   </si>
   <si>
-    <t>[W14: Non-Independent/Miscellaneous Data](../modules/W14.html)</t>
+    <t>[W13: Additional Predictors](../modules/W13.html)</t>
   </si>
   <si>
-    <t>[W13: Additional Predictors](../modules/W13.html)</t>
+    <t>[W14: Miscellaneous Data](../modules/W14.html)</t>
+  </si>
+  <si>
+    <t>T: May 2, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Data Around Us / Practice Questions due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: May 13, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;ALL late work due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Computational Final Computational due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>T: May 7, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Conceptual Final (In Class)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>**Wrapping Up!** (Last Class)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Last Class Survey due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -650,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY40"/>
+  <dimension ref="A1:XEY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -679,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -690,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -701,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8900,10 +8921,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -8911,10 +8932,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8922,10 +8943,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8933,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -8944,10 +8965,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8955,10 +8976,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8966,10 +8987,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8977,10 +8998,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8988,10 +9009,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8999,10 +9020,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9010,10 +9031,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9021,10 +9042,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9032,10 +9053,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9043,10 +9064,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9054,10 +9075,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9065,10 +9086,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9076,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -9087,10 +9108,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34">
@@ -9098,10 +9119,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9109,10 +9130,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9120,10 +9141,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9131,10 +9152,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9142,10 +9163,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9153,10 +9174,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -9164,10 +9185,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9175,10 +9196,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9186,10 +9207,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9197,10 +9218,10 @@
         <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9208,10 +9229,10 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9219,10 +9240,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9230,10 +9251,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9241,10 +9262,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9252,10 +9273,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9263,32 +9284,76 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18">
+    <row r="39" spans="1:3" ht="21" customHeight="1">
       <c r="A39">
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21" customHeight="1">
+      <c r="A41">
         <v>16</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" customHeight="1">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19" customHeight="1">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFD819-19F8-7443-B06B-8E1D25BE3F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE094888-C27E-A54C-9090-E8D4A0F8BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Week</t>
   </si>
@@ -276,9 +276,6 @@
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Data Around Us / Practice Questions due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: May 13, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;ALL late work due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Last Class Survey due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: May 14, 2024</t>
+  </si>
+  <si>
+    <t>T: May 14, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt;PS7 Revisions due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -671,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY44"/>
+  <dimension ref="A1:XEY45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9309,7 +9315,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" customHeight="1">
@@ -9317,10 +9323,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21" customHeight="1">
@@ -9328,10 +9334,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -9342,7 +9348,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" customHeight="1">
@@ -9350,10 +9356,21 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19" customHeight="1">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2024_schedule.xlsx
+++ b/articles/course_docs/data_2024_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE094888-C27E-A54C-9090-E8D4A0F8BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2476941-50F7-8943-A7B5-2C7BE0621A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Week</t>
   </si>
@@ -234,13 +234,7 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 6 due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 7 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>W6 continued…</t>
@@ -253,9 +247,6 @@
   </si>
   <si>
     <t>T: April 9, 2024</t>
-  </si>
-  <si>
-    <t>T: April 23, 2024</t>
   </si>
   <si>
     <t>T: March 26, 2024</t>
@@ -301,6 +292,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt;PS7 Revisions due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 7 due / Opt-out Deadline &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -677,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY45"/>
+  <dimension ref="A1:XEY44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8941,7 +8935,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -9051,7 +9045,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9125,10 +9119,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9158,7 +9152,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>62</v>
@@ -9191,7 +9185,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>63</v>
@@ -9227,7 +9221,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9246,10 +9240,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9257,21 +9251,21 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9279,43 +9273,43 @@
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18">
+    <row r="38" spans="1:3" ht="21" customHeight="1">
       <c r="A38">
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" customHeight="1">
+    <row r="39" spans="1:3" ht="18">
       <c r="A39">
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21" customHeight="1">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" customHeight="1">
@@ -9323,32 +9317,32 @@
         <v>16</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="42" spans="1:3" ht="21" customHeight="1">
+    <row r="42" spans="1:3" ht="18">
       <c r="A42">
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19" customHeight="1">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" customHeight="1">
@@ -9356,21 +9350,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19" customHeight="1">
-      <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
